--- a/Risks.xlsx
+++ b/Risks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21d32d916b59cc41/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0386E2E7-5880-4178-8FDE-071935459804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBA697-B5B1-48E2-8886-C35B06D0F48C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,9 +79,6 @@
     <t>Person in Charge of Tracking</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Not enough time to finish the project. Underestimate the 
 time required to implement it. Can't meet the deadline.</t>
   </si>
@@ -89,9 +86,6 @@
     <t>Work in Overtime, time management</t>
   </si>
   <si>
-    <t>Underestimating tasks</t>
-  </si>
-  <si>
     <t>We don't have a lot of experience with web development. 
 This could lead to us trying to implement features that take up way to much time.</t>
   </si>
@@ -99,16 +93,7 @@
     <t>Git Gud</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Not meeting all specified requirements</t>
-  </si>
-  <si>
     <t>Work in Overtime</t>
-  </si>
-  <si>
-    <t>non-commercial use licence</t>
   </si>
   <si>
     <t>Since we want to use our project commercially, 
@@ -140,21 +125,36 @@
 </t>
   </si>
   <si>
-    <t>Loss of all data</t>
-  </si>
-  <si>
     <t>When storing all data to a single device,
  a loss of all data could be possible</t>
   </si>
   <si>
     <t>Use GIT religiously</t>
+  </si>
+  <si>
+    <t>Bad Time Management</t>
+  </si>
+  <si>
+    <t>Underestimating Tasks</t>
+  </si>
+  <si>
+    <t>Requirement Change</t>
+  </si>
+  <si>
+    <t>Non-Commercial Use Licence</t>
+  </si>
+  <si>
+    <t>Loss of All Data</t>
+  </si>
+  <si>
+    <t>Requirements could change during development</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +233,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,10 +514,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.28515625" customWidth="1"/>
@@ -528,7 +528,7 @@
     <col min="7" max="7" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -551,12 +551,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1">
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -569,19 +569,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">_xlfn.SWITCH(ROUND(RAND()*7+1,0),1,"Jonas A.",2,"David",3,"Jonas S.",4,"Moritz",8,"Jonas A.",7,"David",6,"Jonas S.",5,"Moritz","??")</f>
-        <v>Moritz</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45">
+        <v>Jonas S.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -594,44 +594,44 @@
         <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_xlfn.SWITCH(ROUND(RAND()*7+1,0),1,"Jonas A.",2,"David",3,"Jonas S.",4,"Moritz",8,"Jonas A.",7,"David",6,"Jonas S.",5,"Moritz","??")</f>
-        <v>David</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>Jonas A.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E3:E35" si="0">D4 *C4</f>
-        <v>21</v>
+        <f t="shared" ref="E4:E8" si="0">D4 *C4</f>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">_xlfn.SWITCH(ROUND(RAND()*7+1,0),1,"Jonas A.",2,"David",3,"Jonas S.",4,"Moritz",8,"Jonas A.",7,"David",6,"Jonas S.",5,"Moritz","??")</f>
         <v>Moritz</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
@@ -644,19 +644,19 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">_xlfn.SWITCH(ROUND(RAND()*7+1,0),1,"Jonas A.",2,"David",3,"Jonas S.",4,"Moritz",8,"Jonas A.",7,"David",6,"Jonas S.",5,"Moritz","??")</f>
         <v>Jonas A.</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -669,19 +669,19 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xlfn.SWITCH(ROUND(RAND()*7+1,0),1,"Jonas A.",2,"David",3,"Jonas S.",4,"Moritz",8,"Jonas A.",7,"David",6,"Jonas S.",5,"Moritz","??")</f>
-        <v>Moritz</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45">
+        <v>David</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -694,19 +694,19 @@
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">_xlfn.SWITCH(ROUND(RAND()*7+1,0),1,"Jonas A.",2,"David",3,"Jonas S.",4,"Moritz",8,"Jonas A.",7,"David",6,"Jonas S.",5,"Moritz","??")</f>
-        <v>Jonas S.</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
+        <v>David</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -719,26 +719,26 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">_xlfn.SWITCH(ROUND(RAND()*7+1,0),1,"Jonas A.",2,"David",3,"Jonas S.",4,"Moritz",8,"Jonas A.",7,"David",6,"Jonas S.",5,"Moritz","??")</f>
-        <v>David</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>Jonas A.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
     </row>
   </sheetData>
